--- a/biology/Médecine/Hémosidérose_localisée/Hémosidérose_localisée.xlsx
+++ b/biology/Médecine/Hémosidérose_localisée/Hémosidérose_localisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mosid%C3%A9rose_localis%C3%A9e</t>
+          <t>Hémosidérose_localisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémosidérose localisée est un dépôt d'hémosidérine (complexe protéique riche en fer) limitée à un tissu ou un organe.
 Elle s'oppose à l'hémosidérose systémique (ou hémosidérose généralisée). De façon générale, la surcharge en fer des tissus qui composent l'organisme, est appelée hémosidérose.
-C'est un phénomène extrêmement banal, en effet toute hématie ayant traversé la paroi d'un vaisseau par rupture de celui-ci (hémorragie) ou par érythrodiapédèse est détruite sur place par les macrophages qui vont élaborer du pigment ferrique à partir de l'hémoglobine[1]. Chaque hémorragie intratissulaire est donc vouée à laisser place à une plaque d'hémosidérose ; l'hémosidérose localisée se rencontre donc essentiellement dans les zones d'hémorragies anciennes[2].
-L'hémosidérose localisée peut être systématisée à un organe et reste donc localisée comme par exemple l'hémosidérose pulmonaire, ou dans le cerveau où à la suite d'accident vasculaire cérébral elle constitue l'hémosidérose corticale[3].
+C'est un phénomène extrêmement banal, en effet toute hématie ayant traversé la paroi d'un vaisseau par rupture de celui-ci (hémorragie) ou par érythrodiapédèse est détruite sur place par les macrophages qui vont élaborer du pigment ferrique à partir de l'hémoglobine. Chaque hémorragie intratissulaire est donc vouée à laisser place à une plaque d'hémosidérose ; l'hémosidérose localisée se rencontre donc essentiellement dans les zones d'hémorragies anciennes.
+L'hémosidérose localisée peut être systématisée à un organe et reste donc localisée comme par exemple l'hémosidérose pulmonaire, ou dans le cerveau où à la suite d'accident vasculaire cérébral elle constitue l'hémosidérose corticale.
 </t>
         </is>
       </c>
